--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172520.2746545929</v>
+        <v>169836.149342365</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.07554858</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>44.9156010429375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861689</v>
+        <v>252.1265238839692</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716174</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241032811</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011787</v>
       </c>
       <c r="T2" t="n">
         <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>280.8380704595505</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0733975638445</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261769</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323692</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199469</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>142.3358074706579</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.4282648842214</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063352</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.99965209258519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>343.5163362777032</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>248.7111068218919</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716174</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241032811</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011787</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0733975638444</v>
+        <v>136.0733975638445</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261769</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323692</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199469</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156105</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465901</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063352</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.4149600371271</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>98.86887609079572</v>
+        <v>210.9638849816621</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>108.534461423608</v>
       </c>
       <c r="F8" t="n">
-        <v>102.2417853587172</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
@@ -1190,7 +1190,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.3926620867029</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.192132874536404</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>33.38664646283016</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>71.79687029690999</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>101.3999237630431</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572453676</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890411</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>115.7063133373722</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>104.7950049175963</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695473</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U21" t="n">
         <v>225.7478006422472</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892429339</v>
       </c>
       <c r="I22" t="n">
-        <v>54.45740180395843</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012119</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695473</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128534</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U24" t="n">
         <v>225.7478006422472</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012119</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673137</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>28.98177228777837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>38.05096575280767</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.27552175740387</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>73.9322284908373</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1680.922398636</v>
+        <v>1352.966682288704</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.959881695589</v>
+        <v>984.004165348292</v>
       </c>
       <c r="D2" t="n">
-        <v>953.6941830888384</v>
+        <v>625.7384667415414</v>
       </c>
       <c r="E2" t="n">
-        <v>908.3248891060732</v>
+        <v>625.7384667415414</v>
       </c>
       <c r="F2" t="n">
-        <v>908.3248891060732</v>
+        <v>625.7384667415414</v>
       </c>
       <c r="G2" t="n">
-        <v>491.2249987160036</v>
+        <v>371.0652102930877</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002293</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745297</v>
+        <v>153.998627474527</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031089</v>
+        <v>704.9390792031043</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084385</v>
+        <v>1334.573032084378</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039498</v>
+        <v>1959.763123039489</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.17409378057</v>
+        <v>2493.174093780574</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833993001</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2420.290893970237</v>
+        <v>2263.799931140763</v>
       </c>
       <c r="U2" t="n">
-        <v>2420.290893970237</v>
+        <v>2010.107259195794</v>
       </c>
       <c r="V2" t="n">
-        <v>2420.290893970237</v>
+        <v>1726.432440549783</v>
       </c>
       <c r="W2" t="n">
-        <v>2067.522238700122</v>
+        <v>1726.432440549783</v>
       </c>
       <c r="X2" t="n">
-        <v>2067.522238700122</v>
+        <v>1352.966682288704</v>
       </c>
       <c r="Y2" t="n">
-        <v>2067.522238700122</v>
+        <v>1352.966682288704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120982</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309712</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642645</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G3" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640342</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815789</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320004</v>
+        <v>119.3005601895465</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291106</v>
+        <v>622.2833943866552</v>
       </c>
       <c r="M3" t="n">
-        <v>1061.992430897328</v>
+        <v>990.9111639625228</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.32098308577</v>
+        <v>1643.297497944265</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291443</v>
+        <v>2191.222737149937</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877468</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4443,7 +4443,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202653</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.6332983005678</v>
+        <v>339.4252412566184</v>
       </c>
       <c r="C4" t="n">
-        <v>375.6332983005678</v>
+        <v>339.4252412566184</v>
       </c>
       <c r="D4" t="n">
-        <v>375.6332983005678</v>
+        <v>339.4252412566184</v>
       </c>
       <c r="E4" t="n">
-        <v>375.6332983005678</v>
+        <v>339.4252412566184</v>
       </c>
       <c r="F4" t="n">
-        <v>375.6332983005678</v>
+        <v>339.4252412566184</v>
       </c>
       <c r="G4" t="n">
-        <v>207.021021782959</v>
+        <v>339.4252412566184</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>195.6516983569639</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>70.97668332239688</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919724</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482304</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628118</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543714</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917031</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327078</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="R4" t="n">
-        <v>917.0295025661735</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="S4" t="n">
-        <v>709.4945613603418</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="T4" t="n">
-        <v>709.4945613603418</v>
+        <v>822.0992803605226</v>
       </c>
       <c r="U4" t="n">
-        <v>709.4945613603418</v>
+        <v>822.0992803605226</v>
       </c>
       <c r="V4" t="n">
-        <v>709.4945613603418</v>
+        <v>567.4147921546357</v>
       </c>
       <c r="W4" t="n">
-        <v>420.0773913233812</v>
+        <v>567.4147921546357</v>
       </c>
       <c r="X4" t="n">
-        <v>375.6332983005678</v>
+        <v>339.4252412566184</v>
       </c>
       <c r="Y4" t="n">
-        <v>375.6332983005678</v>
+        <v>339.4252412566184</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.137203733071</v>
+        <v>1383.98482080508</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.137203733071</v>
+        <v>1015.022303864669</v>
       </c>
       <c r="D5" t="n">
-        <v>1546.137203733071</v>
+        <v>1015.022303864669</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.151005472765</v>
+        <v>629.2340512664243</v>
       </c>
       <c r="F5" t="n">
-        <v>788.1651006831571</v>
+        <v>622.2885505172209</v>
       </c>
       <c r="G5" t="n">
-        <v>371.0652102930875</v>
+        <v>371.0652102930877</v>
       </c>
       <c r="H5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J5" t="n">
-        <v>72.94508437002398</v>
+        <v>72.94508437002293</v>
       </c>
       <c r="K5" t="n">
-        <v>153.9986274745297</v>
+        <v>153.998627474527</v>
       </c>
       <c r="L5" t="n">
-        <v>693.1884131896865</v>
+        <v>374.6076920999297</v>
       </c>
       <c r="M5" t="n">
-        <v>1322.822366070962</v>
+        <v>1004.241644981203</v>
       </c>
       <c r="N5" t="n">
-        <v>1948.012457026075</v>
+        <v>1629.431735936314</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.17409378057</v>
+        <v>2174.593372690807</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992999</v>
+        <v>2602.201833993001</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4595,22 +4595,22 @@
         <v>2478.652798385543</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140763</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.737043797193</v>
+        <v>2147.589911041972</v>
       </c>
       <c r="W5" t="n">
-        <v>1932.737043797193</v>
+        <v>2147.589911041972</v>
       </c>
       <c r="X5" t="n">
-        <v>1932.737043797193</v>
+        <v>1774.124152780892</v>
       </c>
       <c r="Y5" t="n">
-        <v>1932.737043797193</v>
+        <v>1383.98482080508</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120983</v>
+        <v>966.4318812120988</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309714</v>
+        <v>791.9788519309718</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697205</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642646</v>
+        <v>483.806987264265</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911499</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640344</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815789</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K6" t="n">
-        <v>304.3729239851255</v>
+        <v>119.3005601895465</v>
       </c>
       <c r="L6" t="n">
-        <v>807.3557581822357</v>
+        <v>622.2833943866552</v>
       </c>
       <c r="M6" t="n">
-        <v>1446.292223162953</v>
+        <v>1261.219859367371</v>
       </c>
       <c r="N6" t="n">
-        <v>1643.297497944261</v>
+        <v>1913.606193349113</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149934</v>
+        <v>2191.222737149937</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877467</v>
+        <v>2613.977979877468</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4677,7 +4677,7 @@
         <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
-        <v>2039.648482162597</v>
+        <v>2039.648482162598</v>
       </c>
       <c r="V6" t="n">
         <v>1804.496373930855</v>
@@ -4686,10 +4686,10 @@
         <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997121</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232167</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.2796175108713</v>
+        <v>522.2862044211179</v>
       </c>
       <c r="C7" t="n">
-        <v>225.2796175108713</v>
+        <v>522.2862044211179</v>
       </c>
       <c r="D7" t="n">
-        <v>225.2796175108713</v>
+        <v>372.1695650087821</v>
       </c>
       <c r="E7" t="n">
-        <v>225.2796175108713</v>
+        <v>372.1695650087821</v>
       </c>
       <c r="F7" t="n">
-        <v>225.2796175108713</v>
+        <v>225.2796175108717</v>
       </c>
       <c r="G7" t="n">
-        <v>225.2796175108713</v>
+        <v>225.2796175108717</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239688</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239647</v>
+        <v>70.97668332239688</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919724</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482304</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628118</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543747</v>
+        <v>746.6329435543714</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917031</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327078</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421852</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>917.0295025661678</v>
       </c>
       <c r="S7" t="n">
-        <v>840.2167432160254</v>
+        <v>917.0295025661678</v>
       </c>
       <c r="T7" t="n">
-        <v>614.5643391546963</v>
+        <v>917.0295025661678</v>
       </c>
       <c r="U7" t="n">
-        <v>514.6967875478319</v>
+        <v>703.9346692513576</v>
       </c>
       <c r="V7" t="n">
-        <v>514.6967875478319</v>
+        <v>703.9346692513576</v>
       </c>
       <c r="W7" t="n">
-        <v>225.2796175108713</v>
+        <v>703.9346692513576</v>
       </c>
       <c r="X7" t="n">
-        <v>225.2796175108713</v>
+        <v>703.9346692513576</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.2796175108713</v>
+        <v>703.9346692513576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1051.039069230067</v>
+        <v>1110.115513862309</v>
       </c>
       <c r="C8" t="n">
-        <v>1051.039069230067</v>
+        <v>1110.115513862309</v>
       </c>
       <c r="D8" t="n">
-        <v>692.7733706233169</v>
+        <v>1110.115513862309</v>
       </c>
       <c r="E8" t="n">
-        <v>692.7733706233169</v>
+        <v>1000.484744747554</v>
       </c>
       <c r="F8" t="n">
         <v>589.498839957946</v>
@@ -4799,55 +4799,55 @@
         <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786752</v>
+        <v>73.95233758786753</v>
       </c>
       <c r="K8" t="n">
-        <v>257.6236694647903</v>
+        <v>156.5154921624599</v>
       </c>
       <c r="L8" t="n">
-        <v>810.4369277109895</v>
+        <v>683.9992506428542</v>
       </c>
       <c r="M8" t="n">
-        <v>997.1363405363971</v>
+        <v>1315.717061626166</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.444008596244</v>
+        <v>1943.024729686013</v>
       </c>
       <c r="O8" t="n">
-        <v>2171.605213363321</v>
+        <v>2490.18593445309</v>
       </c>
       <c r="P8" t="n">
         <v>2600.920259702616</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.904379724212</v>
       </c>
       <c r="T8" t="n">
-        <v>2421.104517991922</v>
+        <v>2421.104517991923</v>
       </c>
       <c r="U8" t="n">
-        <v>2167.412814737073</v>
+        <v>2167.412814737074</v>
       </c>
       <c r="V8" t="n">
-        <v>2167.412814737073</v>
+        <v>1836.349927393503</v>
       </c>
       <c r="W8" t="n">
-        <v>1814.644159466959</v>
+        <v>1483.581272123389</v>
       </c>
       <c r="X8" t="n">
-        <v>1441.178401205879</v>
+        <v>1110.115513862309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1051.039069230067</v>
+        <v>1110.115513862309</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>336.9803201001412</v>
       </c>
       <c r="G9" t="n">
-        <v>199.5389224593631</v>
+        <v>199.5389224593632</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>98.62294460416774</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448422</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578413</v>
+        <v>500.8057437571898</v>
       </c>
       <c r="L9" t="n">
-        <v>453.2923692461773</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1093.837718713282</v>
+        <v>1232.289170088821</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.224052695024</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.660061447747</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
         <v>2404.349688975046</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>327.3464016324937</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="C10" t="n">
-        <v>327.3464016324937</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="D10" t="n">
-        <v>177.2297622201579</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="E10" t="n">
-        <v>177.2297622201579</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="F10" t="n">
-        <v>177.2297622201579</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="G10" t="n">
-        <v>177.2297622201579</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2297622201579</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.71808759448423</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4990,22 +4990,22 @@
         <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>827.0235723661939</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>827.0235723661939</v>
       </c>
       <c r="V10" t="n">
-        <v>797.9682808479421</v>
+        <v>572.339084160307</v>
       </c>
       <c r="W10" t="n">
-        <v>508.5511108109815</v>
+        <v>282.9219141233464</v>
       </c>
       <c r="X10" t="n">
-        <v>508.5511108109815</v>
+        <v>54.93236322532908</v>
       </c>
       <c r="Y10" t="n">
-        <v>508.5511108109815</v>
+        <v>54.93236322532908</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368208</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D13" t="n">
-        <v>481.447947124485</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5348535420919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3387542569719</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311994</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032925</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172278</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135318</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>991.7436897307817</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>822.8075068028749</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>672.6908673905391</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>524.777773808146</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>377.8878263102356</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>210.6917270251155</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2091.209005166763</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1802.133778510961</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704551</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>1173.392154561021</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819269</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111432</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075556</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332366</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014762</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355924</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068001</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694702</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5805,58 +5805,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191946</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349561</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718031</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.528408326413</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565703</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T21" t="n">
         <v>2244.643795685161</v>
@@ -5874,7 +5874,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.6979859831846</v>
+        <v>513.853600740083</v>
       </c>
       <c r="C22" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121762</v>
       </c>
       <c r="D22" t="n">
-        <v>605.645163642942</v>
+        <v>344.9174178121762</v>
       </c>
       <c r="E22" t="n">
-        <v>457.7320700605488</v>
+        <v>344.9174178121762</v>
       </c>
       <c r="F22" t="n">
-        <v>457.7320700605488</v>
+        <v>344.9174178121762</v>
       </c>
       <c r="G22" t="n">
-        <v>290.5359707754288</v>
+        <v>177.7213185270561</v>
       </c>
       <c r="H22" t="n">
-        <v>148.8241396176269</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782964</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038362</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179778</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279811</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853371</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580271</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832674</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487579</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051052</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854718</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648831</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.28419561187</v>
       </c>
       <c r="X22" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138529</v>
       </c>
       <c r="Y22" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703228</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638189501</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111435</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075552</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332365</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014761</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355924</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068001</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694701</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191946</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349561</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718031</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.528408326413</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565703</v>
       </c>
       <c r="P24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="Q24" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T24" t="n">
         <v>2244.643795685161</v>
@@ -6111,7 +6111,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782964</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038362</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179778</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279811</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853371</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580271</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832674</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487579</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051052</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.055381897054</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>961.2628027535235</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2341.482060890433</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2341.482060890433</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>209.2531439449482</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2414.36154645157</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>397.4723325755821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>250.5823850776717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>250.5823850776717</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7991,7 +7991,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532274</v>
+        <v>368.930821653243</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546833</v>
+        <v>6.839178026547472</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>192.6659774824766</v>
       </c>
       <c r="N3" t="n">
-        <v>178.1043206132669</v>
+        <v>459.9808678792286</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>405.7918549409329</v>
+        <v>83.99314676946614</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546833</v>
+        <v>6.839178026547472</v>
       </c>
       <c r="K6" t="n">
-        <v>186.9417816116949</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>459.9808678792286</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>120.8232330092064</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,13 +8453,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>102.1294720225559</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>392.0758612516577</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>197.7140040127697</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-3.160494088660926e-11</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>337.0147690293243</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>160.8023676021997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>206.5214402363494</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>113.047316183739</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.49784254931561</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>47.21554925516926</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101226</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>180.5336875992912</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>112.610445409692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.5229983365953</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392193039</v>
       </c>
       <c r="I22" t="n">
-        <v>26.8084345146071</v>
+        <v>81.26583631856521</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856521</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.2291039219304</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>196.7278831012588</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9753202488369</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.09972495271781</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25597,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>66.36248435538658</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1141674.127258536</v>
+        <v>1141674.127258537</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406865</v>
+        <v>317255.8761406864</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="F2" t="n">
-        <v>343037.3048682526</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682525</v>
       </c>
       <c r="H2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="N2" t="n">
         <v>343037.3048682526</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682529</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>789845.9331222369</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847562</v>
+        <v>2553.741448478346</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329922</v>
+        <v>775624.2722329921</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.874845217273105e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821359</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141881.4568282309</v>
+        <v>141881.4568282312</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408966</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
@@ -26433,31 +26433,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531694496</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695055</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.48053169506</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695111</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695064</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695062</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695092</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695064</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538433</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538433</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.12555917783</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26485,10 +26485,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-701037.6339351687</v>
+        <v>-701224.0273237049</v>
       </c>
       <c r="C6" t="n">
-        <v>77940.29152603986</v>
+        <v>77940.29152603968</v>
       </c>
       <c r="D6" t="n">
-        <v>75825.29971866448</v>
+        <v>75825.29971866167</v>
       </c>
       <c r="E6" t="n">
-        <v>-539996.9777203416</v>
+        <v>-540031.7156457771</v>
       </c>
       <c r="F6" t="n">
-        <v>235627.2945126502</v>
+        <v>235592.5565872148</v>
       </c>
       <c r="G6" t="n">
-        <v>235627.2945126505</v>
+        <v>235592.5565872147</v>
       </c>
       <c r="H6" t="n">
-        <v>235627.2945126504</v>
+        <v>235592.5565872104</v>
       </c>
       <c r="I6" t="n">
-        <v>235627.2945126504</v>
+        <v>235592.556587215</v>
       </c>
       <c r="J6" t="n">
-        <v>63210.15313051008</v>
+        <v>63175.41520507887</v>
       </c>
       <c r="K6" t="n">
-        <v>235627.2945126504</v>
+        <v>235592.5565872148</v>
       </c>
       <c r="L6" t="n">
-        <v>235627.2945126507</v>
+        <v>235592.5565872146</v>
       </c>
       <c r="M6" t="n">
-        <v>107603.1770462637</v>
+        <v>107568.4391208281</v>
       </c>
       <c r="N6" t="n">
-        <v>235627.2945126508</v>
+        <v>235592.5565872147</v>
       </c>
       <c r="O6" t="n">
-        <v>235627.2945126505</v>
+        <v>235592.5565872148</v>
       </c>
       <c r="P6" t="n">
-        <v>235627.2945126506</v>
+        <v>235592.5565872148</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053356</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053356</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26753,10 +26753,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.97550034168</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.97550034168</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053356</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632726251</v>
+        <v>2.981900632729435</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.366462912410498e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-4.808976436591617e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685955</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310531</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685955</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685957</v>
+        <v>513.7321931685955</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.9581905386875</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>46.91418801058438</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>163.2096604421197</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.42409737593221</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371271</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>181.710003296452</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>38.41403379455858</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>164.217784664277</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386875</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9261537524327</v>
+        <v>166.9261537524328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>123.4282648842214</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937734</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>187.3920718690028</v>
+        <v>75.29706297813647</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>273.3959086486537</v>
       </c>
       <c r="F8" t="n">
-        <v>304.6342603829943</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4393180952343698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>15.50370900723258</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28567,10 +28567,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966172</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064414981</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171842</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009678</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071059</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160794</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>416.8265915337066</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635068</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129743</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>341.362026272872</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605208</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170464</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506669</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179942</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172937</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366194</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387877</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817816</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401192</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976542</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623834</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394079</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351575</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492013</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789708</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190952</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064844</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822731</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445314</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830225</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026015</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849485</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.0222100430369</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603926</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546588</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177223</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609689</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203266</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953862</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324554</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550568</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004244</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319882</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565699</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232815</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966172</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064414981</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171842</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009689</v>
+        <v>201.4772144009678</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071059</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160794</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337088</v>
+        <v>416.8265915337066</v>
       </c>
       <c r="N5" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635068</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129743</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728738</v>
+        <v>341.362026272872</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605208</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170472</v>
+        <v>149.1161056170464</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506669</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179942</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172937</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366194</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387883</v>
+        <v>12.26668139387877</v>
       </c>
       <c r="I6" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817816</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401192</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976542</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623834</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394079</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351575</v>
       </c>
       <c r="O6" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492013</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789708</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190961</v>
+        <v>162.1296527190952</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064844</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822731</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445341</v>
+        <v>5.119473297445314</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830225</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026015</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849537</v>
+        <v>9.467267660849485</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303707</v>
+        <v>32.0222100430369</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034603926</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546588</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177231</v>
+        <v>158.3105269177223</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609689</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203266</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953862</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324554</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550568</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004244</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319882</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565699</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232815</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348457</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135365</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067241</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663304</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817607</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.84640711626</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175718</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.271511415947</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460069</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236542</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669249</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043741</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292906</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651539</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078765</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659463</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521113</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422607</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473102</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071819</v>
       </c>
       <c r="O21" t="n">
-        <v>388.514013929771</v>
+        <v>700.0808204437275</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214723</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742463</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937739</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189914</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.9324596612158</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869308</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796269</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355191</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588169</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392062</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106805</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920073</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417328</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670483</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532785</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099327</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467228</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348457</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135365</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067241</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663304</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817607</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.84640711626</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175718</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.271511415947</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460069</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236542</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669249</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043741</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292906</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651539</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078765</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659463</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521113</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422607</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473102</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071819</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437275</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214723</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742463</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937739</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189914</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.9324596612158</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869308</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796269</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355191</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588169</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392062</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106805</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920073</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417328</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515936</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670483</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532785</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099327</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467228</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33263,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428151</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212697</v>
+        <v>81.87226576212532</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965446</v>
+        <v>556.5055067965427</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992686</v>
+        <v>635.9938917992663</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>631.5051423789</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445172</v>
+        <v>538.7989603445307</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176042</v>
+        <v>110.1290305176024</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607136</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358749</v>
+        <v>67.25502282329518</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859684</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173913</v>
+        <v>372.3512823998662</v>
       </c>
       <c r="N3" t="n">
-        <v>377.0995476650929</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581488</v>
+        <v>553.4598375814865</v>
       </c>
       <c r="P3" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045777</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307367</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128776</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780384</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228094</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995552</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094259</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.0643761973489</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903811293</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>20.43130987428259</v>
+        <v>20.43130987428151</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212697</v>
+        <v>81.87226576212532</v>
       </c>
       <c r="L5" t="n">
-        <v>544.6361471870271</v>
+        <v>222.8374390155583</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992686</v>
+        <v>635.9938917992663</v>
       </c>
       <c r="N5" t="n">
-        <v>631.5051423789023</v>
+        <v>631.5051423789</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540352</v>
+        <v>550.668319954033</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176042</v>
+        <v>431.9277386890851</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607272</v>
+        <v>34.04297548607136</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>254.1968044349912</v>
+        <v>67.25502282329518</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859684</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673912</v>
+        <v>645.3903686673895</v>
       </c>
       <c r="N6" t="n">
-        <v>198.995227051826</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581488</v>
+        <v>280.4207513139633</v>
       </c>
       <c r="P6" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045777</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307455</v>
+        <v>22.14787863307367</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287766</v>
+        <v>101.443883128776</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780384</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228094</v>
       </c>
       <c r="N7" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995552</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094259</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973496</v>
+        <v>126.0643761973489</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903811293</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>185.5265978554775</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>532.8118772529235</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35188,7 +35188,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>336.3297595841778</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318222</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396125</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367802</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462728</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902991</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193561</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243202</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683847</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924754</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390242</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679017</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167436</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>27.1347508453</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238486</v>
       </c>
       <c r="O21" t="n">
-        <v>245.9177694853266</v>
+        <v>557.484575999283</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.902171207142</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295415</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096362</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191331</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010468</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899091</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.261899706047</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998993</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318222</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396441</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367802</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462728</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902991</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193561</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243202</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683847</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924754</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390242</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679017</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.328895167436</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.1347508453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238486</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.484575999283</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.902171207142</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295415</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096362</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191331</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010468</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899091</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.261899706047</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998993</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
